--- a/biology/Botanique/Mahot/Mahot.xlsx
+++ b/biology/Botanique/Mahot/Mahot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mahots sont des arbres ou arbustes tropicaux, ainsi nommés à La Réunion[1], aux Antilles, en Guyane pour désigner certaines espèces appartenant ou apparentées à la famille des malvacées ou leur ressemblant ou procurant des produits comparables . 
-Le nom se rapportait à l'origine aux espèces Hibiscus elatus ou Hibiscus tiliaceus et a été emprunté à la langue des Taïnos[2]. Ces indiens Arawaks des Grandes Antilles se servaient de l'écorce interne pour confectionner des lanières. Hibiscus elatus, le mahot bois-bleu[3], (en anglais Blue Mahoe) fut utilisé ensuite à Cuba pour fabriquer les liens retenant les paquets de cigares de Havane et il est devenu à la Jamaïque, l'arbre national[4]. Hibiscus tiliaceus, le mahot bord-de-mer, (en anglais Seaside Mahoe) est également connu et utilisé en Polynésie pour la production d'objets en textile, le more. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mahots sont des arbres ou arbustes tropicaux, ainsi nommés à La Réunion, aux Antilles, en Guyane pour désigner certaines espèces appartenant ou apparentées à la famille des malvacées ou leur ressemblant ou procurant des produits comparables . 
+Le nom se rapportait à l'origine aux espèces Hibiscus elatus ou Hibiscus tiliaceus et a été emprunté à la langue des Taïnos. Ces indiens Arawaks des Grandes Antilles se servaient de l'écorce interne pour confectionner des lanières. Hibiscus elatus, le mahot bois-bleu, (en anglais Blue Mahoe) fut utilisé ensuite à Cuba pour fabriquer les liens retenant les paquets de cigares de Havane et il est devenu à la Jamaïque, l'arbre national. Hibiscus tiliaceus, le mahot bord-de-mer, (en anglais Seaside Mahoe) est également connu et utilisé en Polynésie pour la production d'objets en textile, le more. 
 </t>
         </is>
       </c>
@@ -512,14 +524,51 @@
           <t>À La Réunion</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>À La Réunion, plusieurs espèces indigènes d'arbres ou arbustes, appartenant au genre Dombeya ou au genre Hibiscus sont appelées mahots.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À La Réunion, plusieurs espèces indigènes d'arbres ou arbustes, appartenant au genre Dombeya ou au genre Hibiscus sont appelées mahots.
 Dans la classification classique, le genre Dombeya est inclus dans la famille des sterculiacées, tandis que le genre Hibiscus appartient à la famille des malvacées.
 Dans la classification APG, qui s'appuie sur des études  de distances génétiques, ces deux genres sont rassemblés dans la même famille des malvacées, confirmant une certaine forme d'intuition des anciens. Certains mahots font par ailleurs immanquablement penser, par leur allure et la forme de leurs feuilles, aux tilleuls, dont la famille, les tiliacées, a elle aussi été fusionnée aux malvacées dans la classification APG. En Europe, on utilisait aussi l'écorce interne des tilleuls pour la fabrication de cordages et de liens.
 La plupart des mahots sont caractéristiques des paysages de la forêt de bois de couleur des hauts, dans les montagnes de la Réunion, mais certaines espèces appartiennent à la flore de basse altitude, en forêt semi-sèche ou près du littoral.
-Espèces
-genre Dombeya
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Mahot</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mahot</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>À La Réunion</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>genre Dombeya
 Dombeya acutangula : mahot tantan (espèce de forêt semi-sèche des bas)
 Dombeya blattiolens
 Dombeya ciliata
@@ -540,35 +589,72 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Mahot</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Mahot</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Aux Antilles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les graphies « maho » ou « mahaut » sont également pratiquées.
-Espèces
-[5]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les graphies « maho » ou « mahaut » sont également pratiquées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mahot</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mahot</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Aux Antilles</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Malvaceae
 Guazuma ulmifolia (ex-Sterculiaceae) :  mahot-baba, mahot-hetre
 Hibiscus pernambucensis  : mahot franc
@@ -593,37 +679,74 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Mahot</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Mahot</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>En Guyane</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>« Mahot » est un mot d'origine Arawak qui semble désigner originellement l'espèce Talipariti pernambucense (Malvacées)[6].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« Mahot » est un mot d'origine Arawak qui semble désigner originellement l'espèce Talipariti pernambucense (Malvacées).
 Le mot est passé dans le Créole en Guyane.
-Hormis les Mahot cochon (Sterculia spp.[7]), les Mahot coton (Eriotheca spp.) et le Grand mahot (Talipariti pernambucense)[8] qui appartiennent à la famille des malvacées, les Mahots font généralement partie de la famille des lécythidacées. Ils ont en commun la qualité de leur écorce interne (le liber), fibreuse, souple et résistante, permettant la fabrication de lanières, qu'ils doivent d'avoir été aussi nommés mahots[7].
-Espèces
-Malvaceae
+Hormis les Mahot cochon (Sterculia spp.), les Mahot coton (Eriotheca spp.) et le Grand mahot (Talipariti pernambucense) qui appartiennent à la famille des malvacées, les Mahots font généralement partie de la famille des lécythidacées. Ils ont en commun la qualité de leur écorce interne (le liber), fibreuse, souple et résistante, permettant la fabrication de lanières, qu'ils doivent d'avoir été aussi nommés mahots.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mahot</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mahot</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>En Guyane</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Malvaceae
 Eriotheca crassa (Uittien) A.Robyns, 1963, E. globosa (Aubl.) A.Robyns, 1963, E. longitubulosa A.Robyns, 1963, E. surinamensis (Uittien) A.Robyns, 1963 : Mahot coton
 Sterculia frondosa Rich., 1792, S. imberbis DC., 1824, S. pruriens (Aubl.) K.Schum., 1886, S. villifera Steud., 1843 : Mahot cochon
 Talipariti pernambucense (Arruda) Bovini, 2010 : Grand mahot
